--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="386">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:23:12+00:00</t>
+    <t>2025-05-05T15:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -988,6 +988,39 @@
   </si>
   <si>
     <t>RequestGroup.action.relatedAction.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.relatedAction.extension:additionalRelationship</t>
+  </si>
+  <si>
+    <t>additionalRelationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-additional-action-relationship}
+</t>
+  </si>
+  <si>
+    <t>Additional relatedAction relationship</t>
+  </si>
+  <si>
+    <t>If the extension is used, RequestGroup.action.relatedAction.relationship shall be concurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>RequestGroup.action.relatedAction.modifierExtension</t>
@@ -1487,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1496,9 +1529,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1506,7 +1539,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6621,7 +6654,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6643,14 +6676,12 @@
         <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>21</v>
@@ -6687,16 +6718,14 @@
         <v>21</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>262</v>
@@ -6720,51 +6749,49 @@
         <v>21</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>259</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>21</v>
       </c>
@@ -6812,7 +6839,7 @@
         <v>21</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6821,7 +6848,7 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>136</v>
@@ -6833,47 +6860,51 @@
         <v>21</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>21</v>
       </c>
@@ -6921,19 +6952,19 @@
         <v>21</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>21</v>
@@ -6942,15 +6973,15 @@
         <v>21</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6973,13 +7004,13 @@
         <v>21</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7006,13 +7037,13 @@
         <v>21</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>320</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>21</v>
@@ -7030,7 +7061,7 @@
         <v>21</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>85</v>
@@ -7056,10 +7087,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7067,7 +7098,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>85</v>
@@ -7082,13 +7113,13 @@
         <v>21</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7115,13 +7146,13 @@
         <v>21</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>21</v>
@@ -7139,10 +7170,10 @@
         <v>21</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>85</v>
@@ -7165,10 +7196,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7191,13 +7222,13 @@
         <v>21</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7248,7 +7279,7 @@
         <v>21</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7263,7 +7294,7 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>21</v>
@@ -7274,10 +7305,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7288,7 +7319,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>21</v>
@@ -7300,13 +7331,13 @@
         <v>21</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7357,13 +7388,13 @@
         <v>21</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>21</v>
@@ -7372,10 +7403,10 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>21</v>
@@ -7383,10 +7414,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7397,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>21</v>
@@ -7409,13 +7440,13 @@
         <v>21</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7442,37 +7473,37 @@
         <v>21</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>21</v>
@@ -7481,10 +7512,10 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>21</v>
+        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>21</v>
@@ -7492,10 +7523,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7518,13 +7549,13 @@
         <v>21</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7551,31 +7582,31 @@
         <v>21</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Z55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7601,10 +7632,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7630,10 +7661,10 @@
         <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7663,10 +7694,10 @@
         <v>182</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>21</v>
@@ -7684,7 +7715,7 @@
         <v>21</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7710,10 +7741,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7739,10 +7770,10 @@
         <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7772,10 +7803,10 @@
         <v>182</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>21</v>
@@ -7793,7 +7824,7 @@
         <v>21</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7819,10 +7850,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7848,10 +7879,10 @@
         <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7881,10 +7912,10 @@
         <v>182</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>21</v>
@@ -7902,7 +7933,7 @@
         <v>21</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7928,10 +7959,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7957,10 +7988,10 @@
         <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7990,10 +8021,10 @@
         <v>182</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>21</v>
@@ -8011,7 +8042,7 @@
         <v>21</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8037,10 +8068,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8063,17 +8094,15 @@
         <v>21</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>21</v>
@@ -8098,13 +8127,13 @@
         <v>21</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>21</v>
@@ -8122,7 +8151,7 @@
         <v>21</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8131,7 +8160,7 @@
         <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>372</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>97</v>
@@ -8148,10 +8177,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8162,7 +8191,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>21</v>
@@ -8174,15 +8203,17 @@
         <v>21</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>21</v>
@@ -8231,16 +8262,16 @@
         <v>21</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>97</v>
@@ -8252,6 +8283,115 @@
         <v>21</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>21</v>
       </c>
     </row>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T15:47:55+00:00</t>
+    <t>2025-05-06T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:30:16+00:00</t>
+    <t>2025-05-12T16:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T16:48:36+00:00</t>
+    <t>2025-05-12T17:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:06:32+00:00</t>
+    <t>2025-05-12T17:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:31:52+00:00</t>
+    <t>2025-05-12T17:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:48:32+00:00</t>
+    <t>2025-07-08T15:57:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T15:57:28+00:00</t>
+    <t>2025-07-08T16:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-requestgroup-for-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T16:24:33+00:00</t>
+    <t>2025-07-09T16:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
